--- a/users.xlsx
+++ b/users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greatpeoplebr-my.sharepoint.com/personal/tiago_rodrigues_greatpeople_com_br/Documents/Documentos/CI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greatpeoplebr-my.sharepoint.com/personal/tiago_rodrigues_greatpeople_com_br/Documents/Documentos/GitHub/CoachInvisivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{FC7AD8A9-2027-4426-ABBA-30691AC6BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{546F3DBB-27C7-4063-930B-4F3910DDE4C8}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{FC7AD8A9-2027-4426-ABBA-30691AC6BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35D05B2E-AF9D-4F8A-83D9-296B5A7E2B69}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9D81949D-7E2A-479A-B91E-C69D20CC2CBB}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Mauricio Villar</t>
   </si>
   <si>
-    <t>Arthur Magalhaes</t>
-  </si>
-  <si>
     <t>Suelen Brito</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>arthur@oddrive.com.br, bruno@oddrive.com.br, vitor@oddrive.com.br, eduardo@oddrive.com.br</t>
+  </si>
+  <si>
+    <t>Arthur Magalhaes, OD Drive</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,7 +599,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -624,18 +624,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
